--- a/output/ccta_llama3_internal.xlsx
+++ b/output/ccta_llama3_internal.xlsx
@@ -4262,7 +4262,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
